--- a/resource/xlsx/E03EXAMPLE.xlsx
+++ b/resource/xlsx/E03EXAMPLE.xlsx
@@ -3,24 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -48,9 +46,6 @@
       <sz val="8"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -72,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,17 +168,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -251,23 +240,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -647,34 +645,34 @@
   </sheetPr>
   <dimension ref="B2:O378"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="15.625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.25" customWidth="1" min="4" max="4"/>
-    <col width="6.25" customWidth="1" min="5" max="5"/>
-    <col width="11.125" customWidth="1" min="6" max="6"/>
-    <col width="9.375" customWidth="1" min="7" max="7"/>
-    <col width="15.625" customWidth="1" min="8" max="9"/>
+    <col width="15.625" customWidth="1" style="29" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="30" min="4" max="4"/>
+    <col width="6.25" customWidth="1" style="30" min="5" max="5"/>
+    <col width="11.125" customWidth="1" style="30" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="30" min="7" max="7"/>
+    <col width="15.625" customWidth="1" style="30" min="8" max="9"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="B2" s="25" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="30">
+      <c r="B2" s="28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
-      <c r="H2" s="25" t="inlineStr">
+      <c r="H2" s="28" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="4" ht="18.75" customHeight="1" s="30">
       <c r="B4" s="14" t="inlineStr">
         <is>
           <t>이름</t>
@@ -723,8 +721,8 @@
       <c r="N4" s="8" t="n"/>
       <c r="O4" s="8" t="n"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="27" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="30">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>강민석</t>
         </is>
@@ -748,7 +746,7 @@
           <t>스타카페</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="29" t="inlineStr">
         <is>
           <t>스무디</t>
         </is>
@@ -764,8 +762,8 @@
       <c r="N5" s="8" t="n"/>
       <c r="O5" s="8" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="27" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="30">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>박충선</t>
         </is>
@@ -789,7 +787,7 @@
           <t>스타카페</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" s="29" t="inlineStr">
         <is>
           <t>아이스티</t>
         </is>
@@ -805,8 +803,8 @@
       <c r="N6" s="8" t="n"/>
       <c r="O6" s="8" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="27" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="30">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>김보강</t>
         </is>
@@ -830,7 +828,7 @@
           <t>스타카페</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" s="29" t="inlineStr">
         <is>
           <t>카페라떼</t>
         </is>
@@ -846,8 +844,8 @@
       <c r="N7" s="8" t="n"/>
       <c r="O7" s="8" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="27" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="30">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>김서경</t>
         </is>
@@ -871,7 +869,7 @@
           <t>커피딘</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" s="29" t="inlineStr">
         <is>
           <t>스무디</t>
         </is>
@@ -885,8 +883,8 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="27" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="30">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>박지수</t>
         </is>
@@ -910,7 +908,7 @@
           <t>커피딘</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" s="29" t="inlineStr">
         <is>
           <t>아이스티</t>
         </is>
@@ -920,8 +918,8 @@
       </c>
       <c r="M9" s="8" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="27" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="30">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>김권후</t>
         </is>
@@ -959,8 +957,8 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="27" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="30">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>백원길</t>
         </is>
@@ -979,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
+      <c r="H11" s="29" t="n"/>
+      <c r="I11" s="29" t="n"/>
+      <c r="J11" s="29" t="n"/>
       <c r="M11" s="8" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="27" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1" s="30">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>김기남</t>
         </is>
@@ -1004,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="9" t="n"/>
-      <c r="H12" s="25" t="inlineStr">
+      <c r="H12" s="28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1015,8 +1013,8 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="27" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1" s="30">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>서원섭</t>
         </is>
@@ -1035,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="9" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
+      <c r="I13" s="29" t="n"/>
+      <c r="J13" s="29" t="n"/>
       <c r="M13" s="8" t="inlineStr">
         <is>
           <t>B표는 Sheer3에 있으며</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="27" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1" s="30">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>권오성</t>
         </is>
@@ -1085,7 +1083,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="27" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>박해준</t>
         </is>
@@ -1104,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="9" t="n"/>
-      <c r="H15" s="26" t="inlineStr">
+      <c r="H15" s="31" t="inlineStr">
         <is>
           <t>스타카페</t>
         </is>
@@ -1114,10 +1112,12 @@
           <t>스무디</t>
         </is>
       </c>
-      <c r="J15" s="22" t="n"/>
+      <c r="J15" s="32" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="27" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>고태영</t>
         </is>
@@ -1136,16 +1136,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="9" t="n"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="H16" s="26" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
           <t>아이스티</t>
         </is>
       </c>
-      <c r="J16" s="22" t="n"/>
+      <c r="J16" s="32" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="27" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>강승완</t>
         </is>
@@ -1164,16 +1166,18 @@
         <v>1</v>
       </c>
       <c r="F17" s="9" t="n"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="H17" s="26" t="n"/>
       <c r="I17" s="21" t="inlineStr">
         <is>
           <t>카페라떼</t>
         </is>
       </c>
-      <c r="J17" s="22" t="n"/>
+      <c r="J17" s="32" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="27" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>구승현</t>
         </is>
@@ -1192,20 +1196,22 @@
         <v>1</v>
       </c>
       <c r="F18" s="9" t="n"/>
-      <c r="H18" s="28" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="n"/>
+      <c r="H18" s="25" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="I18" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="J18" s="33" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="27" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>서지훈</t>
         </is>
@@ -1224,16 +1230,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="9" t="n"/>
-      <c r="H19" s="29" t="n"/>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="n"/>
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="J19" s="33" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="27" t="inlineStr">
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>박시후</t>
         </is>
@@ -1252,16 +1260,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="9" t="n"/>
-      <c r="H20" s="30" t="n"/>
+      <c r="H20" s="27" t="n"/>
       <c r="I20" s="18" t="inlineStr">
         <is>
           <t>카페라떼</t>
         </is>
       </c>
-      <c r="J20" s="7" t="n"/>
+      <c r="J20" s="34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="27" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>서기원</t>
         </is>
@@ -1281,8 +1291,8 @@
       </c>
       <c r="F21" s="9" t="n"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="27" t="inlineStr">
+    <row r="22" ht="18.75" customHeight="1" s="30">
+      <c r="B22" s="15" t="inlineStr">
         <is>
           <t>류승국</t>
         </is>
@@ -1301,14 +1311,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="9" t="n"/>
-      <c r="H22" s="25" t="inlineStr">
+      <c r="H22" s="28" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="27" t="inlineStr">
+      <c r="B23" s="15" t="inlineStr">
         <is>
           <t>박지빈</t>
         </is>
@@ -1329,7 +1339,7 @@
       <c r="F23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="27" t="inlineStr">
+      <c r="B24" s="15" t="inlineStr">
         <is>
           <t>김동현</t>
         </is>
@@ -1360,7 +1370,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="27" t="inlineStr">
+      <c r="B25" s="15" t="inlineStr">
         <is>
           <t>김상규</t>
         </is>
@@ -1384,10 +1394,12 @@
           <t>스타카페</t>
         </is>
       </c>
-      <c r="I25" s="23" t="n"/>
+      <c r="I25" s="35" t="n">
+        <v>462000</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="27" t="inlineStr">
+      <c r="B26" s="15" t="inlineStr">
         <is>
           <t>박선준</t>
         </is>
@@ -1411,10 +1423,12 @@
           <t>커피딘</t>
         </is>
       </c>
-      <c r="I26" s="24" t="n"/>
+      <c r="I26" s="36" t="n">
+        <v>456900</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="27" t="inlineStr">
+      <c r="B27" s="15" t="inlineStr">
         <is>
           <t>김서하</t>
         </is>
@@ -1435,7 +1449,7 @@
       <c r="F27" s="9" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="27" t="inlineStr">
+      <c r="B28" s="15" t="inlineStr">
         <is>
           <t>배지환</t>
         </is>
@@ -1456,7 +1470,7 @@
       <c r="F28" s="9" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="27" t="inlineStr">
+      <c r="B29" s="15" t="inlineStr">
         <is>
           <t>서준열</t>
         </is>
@@ -1477,7 +1491,7 @@
       <c r="F29" s="9" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="27" t="inlineStr">
+      <c r="B30" s="15" t="inlineStr">
         <is>
           <t>박기륭</t>
         </is>
@@ -1498,7 +1512,7 @@
       <c r="F30" s="9" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="27" t="inlineStr">
+      <c r="B31" s="15" t="inlineStr">
         <is>
           <t>김동희</t>
         </is>
@@ -1519,7 +1533,7 @@
       <c r="F31" s="9" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="27" t="inlineStr">
+      <c r="B32" s="15" t="inlineStr">
         <is>
           <t>김상경</t>
         </is>
@@ -1540,7 +1554,7 @@
       <c r="F32" s="9" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="27" t="inlineStr">
+      <c r="B33" s="15" t="inlineStr">
         <is>
           <t>김규식</t>
         </is>
@@ -1561,7 +1575,7 @@
       <c r="F33" s="9" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="27" t="inlineStr">
+      <c r="B34" s="15" t="inlineStr">
         <is>
           <t>강동원</t>
         </is>
@@ -1582,7 +1596,7 @@
       <c r="F34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="27" t="inlineStr">
+      <c r="B35" s="15" t="inlineStr">
         <is>
           <t>류제윤</t>
         </is>
@@ -1603,7 +1617,7 @@
       <c r="F35" s="9" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="27" t="inlineStr">
+      <c r="B36" s="15" t="inlineStr">
         <is>
           <t>박성환</t>
         </is>
@@ -1624,7 +1638,7 @@
       <c r="F36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="27" t="inlineStr">
+      <c r="B37" s="15" t="inlineStr">
         <is>
           <t>박지일</t>
         </is>
@@ -1645,7 +1659,7 @@
       <c r="F37" s="9" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="27" t="inlineStr">
+      <c r="B38" s="15" t="inlineStr">
         <is>
           <t>김선호</t>
         </is>
@@ -1666,7 +1680,7 @@
       <c r="F38" s="9" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="27" t="inlineStr">
+      <c r="B39" s="15" t="inlineStr">
         <is>
           <t>서재경</t>
         </is>
@@ -1687,7 +1701,7 @@
       <c r="F39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="27" t="inlineStr">
+      <c r="B40" s="15" t="inlineStr">
         <is>
           <t>고규필</t>
         </is>
@@ -1708,7 +1722,7 @@
       <c r="F40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="27" t="inlineStr">
+      <c r="B41" s="15" t="inlineStr">
         <is>
           <t>김병옥</t>
         </is>
@@ -1729,7 +1743,7 @@
       <c r="F41" s="9" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="27" t="inlineStr">
+      <c r="B42" s="15" t="inlineStr">
         <is>
           <t>류수영</t>
         </is>
@@ -1750,7 +1764,7 @@
       <c r="F42" s="9" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="27" t="inlineStr">
+      <c r="B43" s="15" t="inlineStr">
         <is>
           <t>김동석</t>
         </is>
@@ -1771,7 +1785,7 @@
       <c r="F43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="27" t="inlineStr">
+      <c r="B44" s="15" t="inlineStr">
         <is>
           <t>박종찬</t>
         </is>
@@ -1792,7 +1806,7 @@
       <c r="F44" s="9" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="27" t="inlineStr">
+      <c r="B45" s="15" t="inlineStr">
         <is>
           <t>김사권</t>
         </is>
@@ -1813,7 +1827,7 @@
       <c r="F45" s="9" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="27" t="inlineStr">
+      <c r="B46" s="15" t="inlineStr">
         <is>
           <t>변우종</t>
         </is>
@@ -1834,7 +1848,7 @@
       <c r="F46" s="9" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="27" t="inlineStr">
+      <c r="B47" s="15" t="inlineStr">
         <is>
           <t>곽인준</t>
         </is>
@@ -1855,7 +1869,7 @@
       <c r="F47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="27" t="inlineStr">
+      <c r="B48" s="15" t="inlineStr">
         <is>
           <t>기주봉</t>
         </is>
@@ -1876,7 +1890,7 @@
       <c r="F48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="27" t="inlineStr">
+      <c r="B49" s="15" t="inlineStr">
         <is>
           <t>기국서</t>
         </is>
@@ -1897,7 +1911,7 @@
       <c r="F49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="27" t="inlineStr">
+      <c r="B50" s="15" t="inlineStr">
         <is>
           <t>민찬기</t>
         </is>
@@ -1918,7 +1932,7 @@
       <c r="F50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="27" t="inlineStr">
+      <c r="B51" s="15" t="inlineStr">
         <is>
           <t>박선우</t>
         </is>
@@ -1939,7 +1953,7 @@
       <c r="F51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="27" t="inlineStr">
+      <c r="B52" s="15" t="inlineStr">
         <is>
           <t>강신형</t>
         </is>
@@ -1960,7 +1974,7 @@
       <c r="F52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="27" t="inlineStr">
+      <c r="B53" s="15" t="inlineStr">
         <is>
           <t>김민재</t>
         </is>
@@ -1981,7 +1995,7 @@
       <c r="F53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="27" t="inlineStr">
+      <c r="B54" s="15" t="inlineStr">
         <is>
           <t>김민기</t>
         </is>
@@ -2002,7 +2016,7 @@
       <c r="F54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="27" t="inlineStr">
+      <c r="B55" s="15" t="inlineStr">
         <is>
           <t>방주환</t>
         </is>
@@ -2023,7 +2037,7 @@
       <c r="F55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="27" t="inlineStr">
+      <c r="B56" s="15" t="inlineStr">
         <is>
           <t>김동범</t>
         </is>
@@ -2044,7 +2058,7 @@
       <c r="F56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="27" t="inlineStr">
+      <c r="B57" s="15" t="inlineStr">
         <is>
           <t>박선호</t>
         </is>
@@ -2065,7 +2079,7 @@
       <c r="F57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="27" t="inlineStr">
+      <c r="B58" s="15" t="inlineStr">
         <is>
           <t>김동영</t>
         </is>
@@ -2086,7 +2100,7 @@
       <c r="F58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="27" t="inlineStr">
+      <c r="B59" s="15" t="inlineStr">
         <is>
           <t>박훈정</t>
         </is>
@@ -2107,7 +2121,7 @@
       <c r="F59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="27" t="inlineStr">
+      <c r="B60" s="15" t="inlineStr">
         <is>
           <t>김민교</t>
         </is>
@@ -2128,7 +2142,7 @@
       <c r="F60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="27" t="inlineStr">
+      <c r="B61" s="15" t="inlineStr">
         <is>
           <t>백석광</t>
         </is>
@@ -2149,7 +2163,7 @@
       <c r="F61" s="9" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="27" t="inlineStr">
+      <c r="B62" s="15" t="inlineStr">
         <is>
           <t>박기웅</t>
         </is>
@@ -2170,7 +2184,7 @@
       <c r="F62" s="9" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="27" t="inlineStr">
+      <c r="B63" s="15" t="inlineStr">
         <is>
           <t>김경식</t>
         </is>
@@ -2191,7 +2205,7 @@
       <c r="F63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="27" t="inlineStr">
+      <c r="B64" s="15" t="inlineStr">
         <is>
           <t>박성현</t>
         </is>
@@ -2212,7 +2226,7 @@
       <c r="F64" s="9" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="27" t="inlineStr">
+      <c r="B65" s="15" t="inlineStr">
         <is>
           <t>박지환</t>
         </is>
@@ -2233,7 +2247,7 @@
       <c r="F65" s="9" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="27" t="inlineStr">
+      <c r="B66" s="15" t="inlineStr">
         <is>
           <t>리우진</t>
         </is>
@@ -2254,7 +2268,7 @@
       <c r="F66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="27" t="inlineStr">
+      <c r="B67" s="15" t="inlineStr">
         <is>
           <t>문학진</t>
         </is>
@@ -2275,7 +2289,7 @@
       <c r="F67" s="9" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="27" t="inlineStr">
+      <c r="B68" s="15" t="inlineStr">
         <is>
           <t>박희순</t>
         </is>
@@ -2296,7 +2310,7 @@
       <c r="F68" s="9" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" s="27" t="inlineStr">
+      <c r="B69" s="15" t="inlineStr">
         <is>
           <t>강태우</t>
         </is>
@@ -2317,7 +2331,7 @@
       <c r="F69" s="9" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" s="27" t="inlineStr">
+      <c r="B70" s="15" t="inlineStr">
         <is>
           <t>김강현</t>
         </is>
@@ -2338,7 +2352,7 @@
       <c r="F70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" s="27" t="inlineStr">
+      <c r="B71" s="15" t="inlineStr">
         <is>
           <t>박용범</t>
         </is>
@@ -2359,7 +2373,7 @@
       <c r="F71" s="9" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="27" t="inlineStr">
+      <c r="B72" s="15" t="inlineStr">
         <is>
           <t>강태주</t>
         </is>
@@ -2380,7 +2394,7 @@
       <c r="F72" s="9" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" s="27" t="inlineStr">
+      <c r="B73" s="15" t="inlineStr">
         <is>
           <t>김무열</t>
         </is>
@@ -2401,7 +2415,7 @@
       <c r="F73" s="9" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" s="27" t="inlineStr">
+      <c r="B74" s="15" t="inlineStr">
         <is>
           <t>박지홍</t>
         </is>
@@ -2422,7 +2436,7 @@
       <c r="F74" s="9" t="n"/>
     </row>
     <row r="75">
-      <c r="B75" s="27" t="inlineStr">
+      <c r="B75" s="15" t="inlineStr">
         <is>
           <t>변요한</t>
         </is>
@@ -2443,7 +2457,7 @@
       <c r="F75" s="9" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="27" t="inlineStr">
+      <c r="B76" s="15" t="inlineStr">
         <is>
           <t>박인배</t>
         </is>
@@ -2464,7 +2478,7 @@
       <c r="F76" s="9" t="n"/>
     </row>
     <row r="77">
-      <c r="B77" s="27" t="inlineStr">
+      <c r="B77" s="15" t="inlineStr">
         <is>
           <t>박철현</t>
         </is>
@@ -2485,7 +2499,7 @@
       <c r="F77" s="9" t="n"/>
     </row>
     <row r="78">
-      <c r="B78" s="27" t="inlineStr">
+      <c r="B78" s="15" t="inlineStr">
         <is>
           <t>박영운</t>
         </is>
@@ -2506,7 +2520,7 @@
       <c r="F78" s="9" t="n"/>
     </row>
     <row r="79">
-      <c r="B79" s="27" t="inlineStr">
+      <c r="B79" s="15" t="inlineStr">
         <is>
           <t>배동성</t>
         </is>
@@ -2527,7 +2541,7 @@
       <c r="F79" s="9" t="n"/>
     </row>
     <row r="80">
-      <c r="B80" s="27" t="inlineStr">
+      <c r="B80" s="15" t="inlineStr">
         <is>
           <t>권혁풍</t>
         </is>
@@ -2548,7 +2562,7 @@
       <c r="F80" s="9" t="n"/>
     </row>
     <row r="81">
-      <c r="B81" s="27" t="inlineStr">
+      <c r="B81" s="15" t="inlineStr">
         <is>
           <t>류주한</t>
         </is>
@@ -2569,7 +2583,7 @@
       <c r="F81" s="9" t="n"/>
     </row>
     <row r="82">
-      <c r="B82" s="27" t="inlineStr">
+      <c r="B82" s="15" t="inlineStr">
         <is>
           <t>배성일</t>
         </is>
@@ -2590,7 +2604,7 @@
       <c r="F82" s="9" t="n"/>
     </row>
     <row r="83">
-      <c r="B83" s="27" t="inlineStr">
+      <c r="B83" s="15" t="inlineStr">
         <is>
           <t>김상호</t>
         </is>
@@ -2611,7 +2625,7 @@
       <c r="F83" s="9" t="n"/>
     </row>
     <row r="84">
-      <c r="B84" s="27" t="inlineStr">
+      <c r="B84" s="15" t="inlineStr">
         <is>
           <t>김모범</t>
         </is>
@@ -2632,7 +2646,7 @@
       <c r="F84" s="9" t="n"/>
     </row>
     <row r="85">
-      <c r="B85" s="27" t="inlineStr">
+      <c r="B85" s="15" t="inlineStr">
         <is>
           <t>방대한</t>
         </is>
@@ -2653,7 +2667,7 @@
       <c r="F85" s="9" t="n"/>
     </row>
     <row r="86">
-      <c r="B86" s="27" t="inlineStr">
+      <c r="B86" s="15" t="inlineStr">
         <is>
           <t>김동욱</t>
         </is>
@@ -2674,7 +2688,7 @@
       <c r="F86" s="9" t="n"/>
     </row>
     <row r="87">
-      <c r="B87" s="27" t="inlineStr">
+      <c r="B87" s="15" t="inlineStr">
         <is>
           <t>기세형</t>
         </is>
@@ -2695,7 +2709,7 @@
       <c r="F87" s="9" t="n"/>
     </row>
     <row r="88">
-      <c r="B88" s="27" t="inlineStr">
+      <c r="B88" s="15" t="inlineStr">
         <is>
           <t>김민재</t>
         </is>
@@ -2716,7 +2730,7 @@
       <c r="F88" s="9" t="n"/>
     </row>
     <row r="89">
-      <c r="B89" s="27" t="inlineStr">
+      <c r="B89" s="15" t="inlineStr">
         <is>
           <t>서석규</t>
         </is>
@@ -2737,7 +2751,7 @@
       <c r="F89" s="9" t="n"/>
     </row>
     <row r="90">
-      <c r="B90" s="27" t="inlineStr">
+      <c r="B90" s="15" t="inlineStr">
         <is>
           <t>강현욱</t>
         </is>
@@ -2758,7 +2772,7 @@
       <c r="F90" s="9" t="n"/>
     </row>
     <row r="91">
-      <c r="B91" s="27" t="inlineStr">
+      <c r="B91" s="15" t="inlineStr">
         <is>
           <t>서우진</t>
         </is>
@@ -2779,7 +2793,7 @@
       <c r="F91" s="9" t="n"/>
     </row>
     <row r="92">
-      <c r="B92" s="27" t="inlineStr">
+      <c r="B92" s="15" t="inlineStr">
         <is>
           <t>박영록</t>
         </is>
@@ -2800,7 +2814,7 @@
       <c r="F92" s="9" t="n"/>
     </row>
     <row r="93">
-      <c r="B93" s="27" t="inlineStr">
+      <c r="B93" s="15" t="inlineStr">
         <is>
           <t>배진웅</t>
         </is>
@@ -2821,7 +2835,7 @@
       <c r="F93" s="9" t="n"/>
     </row>
     <row r="94">
-      <c r="B94" s="27" t="inlineStr">
+      <c r="B94" s="15" t="inlineStr">
         <is>
           <t>박성환</t>
         </is>
@@ -2842,7 +2856,7 @@
       <c r="F94" s="9" t="n"/>
     </row>
     <row r="95">
-      <c r="B95" s="27" t="inlineStr">
+      <c r="B95" s="15" t="inlineStr">
         <is>
           <t>김선익</t>
         </is>
@@ -2863,7 +2877,7 @@
       <c r="F95" s="9" t="n"/>
     </row>
     <row r="96">
-      <c r="B96" s="27" t="inlineStr">
+      <c r="B96" s="15" t="inlineStr">
         <is>
           <t>강신범</t>
         </is>
@@ -2884,7 +2898,7 @@
       <c r="F96" s="9" t="n"/>
     </row>
     <row r="97">
-      <c r="B97" s="27" t="inlineStr">
+      <c r="B97" s="15" t="inlineStr">
         <is>
           <t>김동규</t>
         </is>
@@ -2905,7 +2919,7 @@
       <c r="F97" s="9" t="n"/>
     </row>
     <row r="98">
-      <c r="B98" s="27" t="inlineStr">
+      <c r="B98" s="15" t="inlineStr">
         <is>
           <t>금호석</t>
         </is>
@@ -2926,7 +2940,7 @@
       <c r="F98" s="9" t="n"/>
     </row>
     <row r="99">
-      <c r="B99" s="27" t="inlineStr">
+      <c r="B99" s="15" t="inlineStr">
         <is>
           <t>박용우</t>
         </is>
@@ -2947,7 +2961,7 @@
       <c r="F99" s="9" t="n"/>
     </row>
     <row r="100">
-      <c r="B100" s="27" t="inlineStr">
+      <c r="B100" s="15" t="inlineStr">
         <is>
           <t>권혁범</t>
         </is>
@@ -2968,7 +2982,7 @@
       <c r="F100" s="9" t="n"/>
     </row>
     <row r="101">
-      <c r="B101" s="27" t="inlineStr">
+      <c r="B101" s="15" t="inlineStr">
         <is>
           <t>마동석</t>
         </is>
@@ -2989,7 +3003,7 @@
       <c r="F101" s="9" t="n"/>
     </row>
     <row r="102">
-      <c r="B102" s="27" t="inlineStr">
+      <c r="B102" s="15" t="inlineStr">
         <is>
           <t>문종원</t>
         </is>
@@ -3010,7 +3024,7 @@
       <c r="F102" s="9" t="n"/>
     </row>
     <row r="103">
-      <c r="B103" s="27" t="inlineStr">
+      <c r="B103" s="15" t="inlineStr">
         <is>
           <t>맹호림</t>
         </is>
@@ -3031,7 +3045,7 @@
       <c r="F103" s="9" t="n"/>
     </row>
     <row r="104">
-      <c r="B104" s="27" t="inlineStr">
+      <c r="B104" s="15" t="inlineStr">
         <is>
           <t>고태진</t>
         </is>
@@ -3052,7 +3066,7 @@
       <c r="F104" s="9" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" s="27" t="inlineStr">
+      <c r="B105" s="15" t="inlineStr">
         <is>
           <t>서상원</t>
         </is>
@@ -3073,7 +3087,7 @@
       <c r="F105" s="9" t="n"/>
     </row>
     <row r="106">
-      <c r="B106" s="27" t="inlineStr">
+      <c r="B106" s="15" t="inlineStr">
         <is>
           <t>김상원</t>
         </is>
@@ -3094,7 +3108,7 @@
       <c r="F106" s="9" t="n"/>
     </row>
     <row r="107">
-      <c r="B107" s="27" t="inlineStr">
+      <c r="B107" s="15" t="inlineStr">
         <is>
           <t>백철민</t>
         </is>
@@ -3115,7 +3129,7 @@
       <c r="F107" s="9" t="n"/>
     </row>
     <row r="108">
-      <c r="B108" s="27" t="inlineStr">
+      <c r="B108" s="15" t="inlineStr">
         <is>
           <t>박준목</t>
         </is>
@@ -3136,7 +3150,7 @@
       <c r="F108" s="9" t="n"/>
     </row>
     <row r="109">
-      <c r="B109" s="27" t="inlineStr">
+      <c r="B109" s="15" t="inlineStr">
         <is>
           <t>박광재</t>
         </is>
@@ -3157,7 +3171,7 @@
       <c r="F109" s="9" t="n"/>
     </row>
     <row r="110">
-      <c r="B110" s="27" t="inlineStr">
+      <c r="B110" s="15" t="inlineStr">
         <is>
           <t>문세윤</t>
         </is>
@@ -3178,7 +3192,7 @@
       <c r="F110" s="9" t="n"/>
     </row>
     <row r="111">
-      <c r="B111" s="27" t="inlineStr">
+      <c r="B111" s="15" t="inlineStr">
         <is>
           <t>박해일</t>
         </is>
@@ -3199,7 +3213,7 @@
       <c r="F111" s="9" t="n"/>
     </row>
     <row r="112">
-      <c r="B112" s="27" t="inlineStr">
+      <c r="B112" s="15" t="inlineStr">
         <is>
           <t>배호근</t>
         </is>
@@ -3220,7 +3234,7 @@
       <c r="F112" s="9" t="n"/>
     </row>
     <row r="113">
-      <c r="B113" s="27" t="inlineStr">
+      <c r="B113" s="15" t="inlineStr">
         <is>
           <t>박혁민</t>
         </is>
@@ -3241,7 +3255,7 @@
       <c r="F113" s="9" t="n"/>
     </row>
     <row r="114">
-      <c r="B114" s="27" t="inlineStr">
+      <c r="B114" s="15" t="inlineStr">
         <is>
           <t>김단율</t>
         </is>
@@ -3262,7 +3276,7 @@
       <c r="F114" s="9" t="n"/>
     </row>
     <row r="115">
-      <c r="B115" s="27" t="inlineStr">
+      <c r="B115" s="15" t="inlineStr">
         <is>
           <t>김건우</t>
         </is>
@@ -3283,7 +3297,7 @@
       <c r="F115" s="9" t="n"/>
     </row>
     <row r="116">
-      <c r="B116" s="27" t="inlineStr">
+      <c r="B116" s="15" t="inlineStr">
         <is>
           <t>변우석</t>
         </is>
@@ -3304,7 +3318,7 @@
       <c r="F116" s="9" t="n"/>
     </row>
     <row r="117">
-      <c r="B117" s="27" t="inlineStr">
+      <c r="B117" s="15" t="inlineStr">
         <is>
           <t>민정섭</t>
         </is>
@@ -3325,7 +3339,7 @@
       <c r="F117" s="9" t="n"/>
     </row>
     <row r="118">
-      <c r="B118" s="27" t="inlineStr">
+      <c r="B118" s="15" t="inlineStr">
         <is>
           <t>김기방</t>
         </is>
@@ -3346,7 +3360,7 @@
       <c r="F118" s="9" t="n"/>
     </row>
     <row r="119">
-      <c r="B119" s="27" t="inlineStr">
+      <c r="B119" s="15" t="inlineStr">
         <is>
           <t>곽민규</t>
         </is>
@@ -3367,7 +3381,7 @@
       <c r="F119" s="9" t="n"/>
     </row>
     <row r="120">
-      <c r="B120" s="27" t="inlineStr">
+      <c r="B120" s="15" t="inlineStr">
         <is>
           <t>구본준</t>
         </is>
@@ -3388,7 +3402,7 @@
       <c r="F120" s="9" t="n"/>
     </row>
     <row r="121">
-      <c r="B121" s="27" t="inlineStr">
+      <c r="B121" s="15" t="inlineStr">
         <is>
           <t>백민현</t>
         </is>
@@ -3409,7 +3423,7 @@
       <c r="F121" s="9" t="n"/>
     </row>
     <row r="122">
-      <c r="B122" s="27" t="inlineStr">
+      <c r="B122" s="15" t="inlineStr">
         <is>
           <t>박건도</t>
         </is>
@@ -3430,7 +3444,7 @@
       <c r="F122" s="9" t="n"/>
     </row>
     <row r="123">
-      <c r="B123" s="27" t="inlineStr">
+      <c r="B123" s="15" t="inlineStr">
         <is>
           <t>박민호</t>
         </is>
@@ -3451,7 +3465,7 @@
       <c r="F123" s="9" t="n"/>
     </row>
     <row r="124">
-      <c r="B124" s="27" t="inlineStr">
+      <c r="B124" s="15" t="inlineStr">
         <is>
           <t>박대원</t>
         </is>
@@ -3472,7 +3486,7 @@
       <c r="F124" s="9" t="n"/>
     </row>
     <row r="125">
-      <c r="B125" s="27" t="inlineStr">
+      <c r="B125" s="15" t="inlineStr">
         <is>
           <t>백천기</t>
         </is>
@@ -3493,7 +3507,7 @@
       <c r="F125" s="9" t="n"/>
     </row>
     <row r="126">
-      <c r="B126" s="27" t="inlineStr">
+      <c r="B126" s="15" t="inlineStr">
         <is>
           <t>서세원</t>
         </is>
@@ -3514,7 +3528,7 @@
       <c r="F126" s="9" t="n"/>
     </row>
     <row r="127">
-      <c r="B127" s="27" t="inlineStr">
+      <c r="B127" s="15" t="inlineStr">
         <is>
           <t>김래원</t>
         </is>
@@ -3535,7 +3549,7 @@
       <c r="F127" s="9" t="n"/>
     </row>
     <row r="128">
-      <c r="B128" s="27" t="inlineStr">
+      <c r="B128" s="15" t="inlineStr">
         <is>
           <t>구은호</t>
         </is>
@@ -3556,7 +3570,7 @@
       <c r="F128" s="9" t="n"/>
     </row>
     <row r="129">
-      <c r="B129" s="27" t="inlineStr">
+      <c r="B129" s="15" t="inlineStr">
         <is>
           <t>고두옥</t>
         </is>
@@ -3577,7 +3591,7 @@
       <c r="F129" s="9" t="n"/>
     </row>
     <row r="130">
-      <c r="B130" s="27" t="inlineStr">
+      <c r="B130" s="15" t="inlineStr">
         <is>
           <t>문유강</t>
         </is>
@@ -3598,7 +3612,7 @@
       <c r="F130" s="9" t="n"/>
     </row>
     <row r="131">
-      <c r="B131" s="27" t="inlineStr">
+      <c r="B131" s="15" t="inlineStr">
         <is>
           <t>국지용</t>
         </is>
@@ -3619,7 +3633,7 @@
       <c r="F131" s="9" t="n"/>
     </row>
     <row r="132">
-      <c r="B132" s="27" t="inlineStr">
+      <c r="B132" s="15" t="inlineStr">
         <is>
           <t>고동현</t>
         </is>
@@ -3640,7 +3654,7 @@
       <c r="F132" s="9" t="n"/>
     </row>
     <row r="133">
-      <c r="B133" s="27" t="inlineStr">
+      <c r="B133" s="15" t="inlineStr">
         <is>
           <t>고영빈</t>
         </is>
@@ -3661,7 +3675,7 @@
       <c r="F133" s="9" t="n"/>
     </row>
     <row r="134">
-      <c r="B134" s="27" t="inlineStr">
+      <c r="B134" s="15" t="inlineStr">
         <is>
           <t>민지혁</t>
         </is>
@@ -3682,7 +3696,7 @@
       <c r="F134" s="9" t="n"/>
     </row>
     <row r="135">
-      <c r="B135" s="27" t="inlineStr">
+      <c r="B135" s="15" t="inlineStr">
         <is>
           <t>강현우</t>
         </is>
@@ -3703,7 +3717,7 @@
       <c r="F135" s="9" t="n"/>
     </row>
     <row r="136">
-      <c r="B136" s="27" t="inlineStr">
+      <c r="B136" s="15" t="inlineStr">
         <is>
           <t>박철호</t>
         </is>
@@ -3724,7 +3738,7 @@
       <c r="F136" s="9" t="n"/>
     </row>
     <row r="137">
-      <c r="B137" s="27" t="inlineStr">
+      <c r="B137" s="15" t="inlineStr">
         <is>
           <t>박민규</t>
         </is>
@@ -3745,7 +3759,7 @@
       <c r="F137" s="9" t="n"/>
     </row>
     <row r="138">
-      <c r="B138" s="27" t="inlineStr">
+      <c r="B138" s="15" t="inlineStr">
         <is>
           <t>김상균</t>
         </is>
@@ -3766,7 +3780,7 @@
       <c r="F138" s="9" t="n"/>
     </row>
     <row r="139">
-      <c r="B139" s="27" t="inlineStr">
+      <c r="B139" s="15" t="inlineStr">
         <is>
           <t>방일수</t>
         </is>
@@ -3787,7 +3801,7 @@
       <c r="F139" s="9" t="n"/>
     </row>
     <row r="140">
-      <c r="B140" s="27" t="inlineStr">
+      <c r="B140" s="15" t="inlineStr">
         <is>
           <t>권오현</t>
         </is>
@@ -3808,7 +3822,7 @@
       <c r="F140" s="9" t="n"/>
     </row>
     <row r="141">
-      <c r="B141" s="27" t="inlineStr">
+      <c r="B141" s="15" t="inlineStr">
         <is>
           <t>권동원</t>
         </is>
@@ -3829,7 +3843,7 @@
       <c r="F141" s="9" t="n"/>
     </row>
     <row r="142">
-      <c r="B142" s="27" t="inlineStr">
+      <c r="B142" s="15" t="inlineStr">
         <is>
           <t>김서원</t>
         </is>
@@ -3850,7 +3864,7 @@
       <c r="F142" s="9" t="n"/>
     </row>
     <row r="143">
-      <c r="B143" s="27" t="inlineStr">
+      <c r="B143" s="15" t="inlineStr">
         <is>
           <t>김도건</t>
         </is>
@@ -3871,7 +3885,7 @@
       <c r="F143" s="9" t="n"/>
     </row>
     <row r="144">
-      <c r="B144" s="27" t="inlineStr">
+      <c r="B144" s="15" t="inlineStr">
         <is>
           <t>강영구</t>
         </is>
@@ -3892,7 +3906,7 @@
       <c r="F144" s="9" t="n"/>
     </row>
     <row r="145">
-      <c r="B145" s="27" t="inlineStr">
+      <c r="B145" s="15" t="inlineStr">
         <is>
           <t>김대환</t>
         </is>
@@ -3913,7 +3927,7 @@
       <c r="F145" s="9" t="n"/>
     </row>
     <row r="146">
-      <c r="B146" s="27" t="inlineStr">
+      <c r="B146" s="15" t="inlineStr">
         <is>
           <t>권동호</t>
         </is>
@@ -3934,7 +3948,7 @@
       <c r="F146" s="9" t="n"/>
     </row>
     <row r="147">
-      <c r="B147" s="27" t="inlineStr">
+      <c r="B147" s="15" t="inlineStr">
         <is>
           <t>박천국</t>
         </is>
@@ -3955,7 +3969,7 @@
       <c r="F147" s="9" t="n"/>
     </row>
     <row r="148">
-      <c r="B148" s="27" t="inlineStr">
+      <c r="B148" s="15" t="inlineStr">
         <is>
           <t>문천식</t>
         </is>
@@ -3976,7 +3990,7 @@
       <c r="F148" s="9" t="n"/>
     </row>
     <row r="149">
-      <c r="B149" s="27" t="inlineStr">
+      <c r="B149" s="15" t="inlineStr">
         <is>
           <t>박성훈</t>
         </is>
@@ -3997,7 +4011,7 @@
       <c r="F149" s="9" t="n"/>
     </row>
     <row r="150">
-      <c r="B150" s="27" t="inlineStr">
+      <c r="B150" s="15" t="inlineStr">
         <is>
           <t>박영준</t>
         </is>
@@ -4018,7 +4032,7 @@
       <c r="F150" s="9" t="n"/>
     </row>
     <row r="151">
-      <c r="B151" s="27" t="inlineStr">
+      <c r="B151" s="15" t="inlineStr">
         <is>
           <t>박유덕</t>
         </is>
@@ -4039,7 +4053,7 @@
       <c r="F151" s="9" t="n"/>
     </row>
     <row r="152">
-      <c r="B152" s="27" t="inlineStr">
+      <c r="B152" s="15" t="inlineStr">
         <is>
           <t>박원호</t>
         </is>
@@ -4060,7 +4074,7 @@
       <c r="F152" s="9" t="n"/>
     </row>
     <row r="153">
-      <c r="B153" s="27" t="inlineStr">
+      <c r="B153" s="15" t="inlineStr">
         <is>
           <t>문지후</t>
         </is>
@@ -4081,7 +4095,7 @@
       <c r="F153" s="9" t="n"/>
     </row>
     <row r="154">
-      <c r="B154" s="27" t="inlineStr">
+      <c r="B154" s="15" t="inlineStr">
         <is>
           <t>구자성</t>
         </is>
@@ -4102,7 +4116,7 @@
       <c r="F154" s="9" t="n"/>
     </row>
     <row r="155">
-      <c r="B155" s="27" t="inlineStr">
+      <c r="B155" s="15" t="inlineStr">
         <is>
           <t>서지원</t>
         </is>
@@ -4123,7 +4137,7 @@
       <c r="F155" s="9" t="n"/>
     </row>
     <row r="156">
-      <c r="B156" s="27" t="inlineStr">
+      <c r="B156" s="15" t="inlineStr">
         <is>
           <t>반상윤</t>
         </is>
@@ -4144,7 +4158,7 @@
       <c r="F156" s="9" t="n"/>
     </row>
     <row r="157">
-      <c r="B157" s="27" t="inlineStr">
+      <c r="B157" s="15" t="inlineStr">
         <is>
           <t>박유천</t>
         </is>
@@ -4165,7 +4179,7 @@
       <c r="F157" s="9" t="n"/>
     </row>
     <row r="158">
-      <c r="B158" s="27" t="inlineStr">
+      <c r="B158" s="15" t="inlineStr">
         <is>
           <t>박상남</t>
         </is>
@@ -4186,7 +4200,7 @@
       <c r="F158" s="9" t="n"/>
     </row>
     <row r="159">
-      <c r="B159" s="27" t="inlineStr">
+      <c r="B159" s="15" t="inlineStr">
         <is>
           <t>강혁일</t>
         </is>
@@ -4207,7 +4221,7 @@
       <c r="F159" s="9" t="n"/>
     </row>
     <row r="160">
-      <c r="B160" s="27" t="inlineStr">
+      <c r="B160" s="15" t="inlineStr">
         <is>
           <t>김동규</t>
         </is>
@@ -4228,7 +4242,7 @@
       <c r="F160" s="9" t="n"/>
     </row>
     <row r="161">
-      <c r="B161" s="27" t="inlineStr">
+      <c r="B161" s="15" t="inlineStr">
         <is>
           <t>강현중</t>
         </is>
@@ -4249,7 +4263,7 @@
       <c r="F161" s="9" t="n"/>
     </row>
     <row r="162">
-      <c r="B162" s="27" t="inlineStr">
+      <c r="B162" s="15" t="inlineStr">
         <is>
           <t>김도윤</t>
         </is>
@@ -4270,7 +4284,7 @@
       <c r="F162" s="9" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="27" t="inlineStr">
+      <c r="B163" s="15" t="inlineStr">
         <is>
           <t>김남길</t>
         </is>
@@ -4291,7 +4305,7 @@
       <c r="F163" s="9" t="n"/>
     </row>
     <row r="164">
-      <c r="B164" s="27" t="inlineStr">
+      <c r="B164" s="15" t="inlineStr">
         <is>
           <t>강신하</t>
         </is>
@@ -4312,7 +4326,7 @@
       <c r="F164" s="9" t="n"/>
     </row>
     <row r="165">
-      <c r="B165" s="27" t="inlineStr">
+      <c r="B165" s="15" t="inlineStr">
         <is>
           <t>방정식</t>
         </is>
@@ -4333,7 +4347,7 @@
       <c r="F165" s="9" t="n"/>
     </row>
     <row r="166">
-      <c r="B166" s="27" t="inlineStr">
+      <c r="B166" s="15" t="inlineStr">
         <is>
           <t>서왕석</t>
         </is>
@@ -4354,7 +4368,7 @@
       <c r="F166" s="9" t="n"/>
     </row>
     <row r="167">
-      <c r="B167" s="27" t="inlineStr">
+      <c r="B167" s="15" t="inlineStr">
         <is>
           <t>서종철</t>
         </is>
@@ -4375,7 +4389,7 @@
       <c r="F167" s="9" t="n"/>
     </row>
     <row r="168">
-      <c r="B168" s="27" t="inlineStr">
+      <c r="B168" s="15" t="inlineStr">
         <is>
           <t>강신일</t>
         </is>
@@ -4396,7 +4410,7 @@
       <c r="F168" s="9" t="n"/>
     </row>
     <row r="169">
-      <c r="B169" s="27" t="inlineStr">
+      <c r="B169" s="15" t="inlineStr">
         <is>
           <t>강성현</t>
         </is>
@@ -4417,7 +4431,7 @@
       <c r="F169" s="9" t="n"/>
     </row>
     <row r="170">
-      <c r="B170" s="27" t="inlineStr">
+      <c r="B170" s="15" t="inlineStr">
         <is>
           <t>박효준</t>
         </is>
@@ -4438,7 +4452,7 @@
       <c r="F170" s="9" t="n"/>
     </row>
     <row r="171">
-      <c r="B171" s="27" t="inlineStr">
+      <c r="B171" s="15" t="inlineStr">
         <is>
           <t>문동혁</t>
         </is>
@@ -4459,7 +4473,7 @@
       <c r="F171" s="9" t="n"/>
     </row>
     <row r="172">
-      <c r="B172" s="27" t="inlineStr">
+      <c r="B172" s="15" t="inlineStr">
         <is>
           <t>박찬우</t>
         </is>
@@ -4480,7 +4494,7 @@
       <c r="F172" s="9" t="n"/>
     </row>
     <row r="173">
-      <c r="B173" s="27" t="inlineStr">
+      <c r="B173" s="15" t="inlineStr">
         <is>
           <t>김민상</t>
         </is>
@@ -4501,7 +4515,7 @@
       <c r="F173" s="9" t="n"/>
     </row>
     <row r="174">
-      <c r="B174" s="27" t="inlineStr">
+      <c r="B174" s="15" t="inlineStr">
         <is>
           <t>강태환</t>
         </is>
@@ -4522,7 +4536,7 @@
       <c r="F174" s="9" t="n"/>
     </row>
     <row r="175">
-      <c r="B175" s="27" t="inlineStr">
+      <c r="B175" s="15" t="inlineStr">
         <is>
           <t>박주용</t>
         </is>
@@ -4543,7 +4557,7 @@
       <c r="F175" s="9" t="n"/>
     </row>
     <row r="176">
-      <c r="B176" s="27" t="inlineStr">
+      <c r="B176" s="15" t="inlineStr">
         <is>
           <t>박정철</t>
         </is>
@@ -4564,7 +4578,7 @@
       <c r="F176" s="9" t="n"/>
     </row>
     <row r="177">
-      <c r="B177" s="27" t="inlineStr">
+      <c r="B177" s="15" t="inlineStr">
         <is>
           <t>김경남</t>
         </is>
@@ -4585,7 +4599,7 @@
       <c r="F177" s="9" t="n"/>
     </row>
     <row r="178">
-      <c r="B178" s="27" t="inlineStr">
+      <c r="B178" s="15" t="inlineStr">
         <is>
           <t>김상엽</t>
         </is>
@@ -4606,7 +4620,7 @@
       <c r="F178" s="9" t="n"/>
     </row>
     <row r="179">
-      <c r="B179" s="27" t="inlineStr">
+      <c r="B179" s="15" t="inlineStr">
         <is>
           <t>박종환</t>
         </is>
@@ -4627,7 +4641,7 @@
       <c r="F179" s="9" t="n"/>
     </row>
     <row r="180">
-      <c r="B180" s="27" t="inlineStr">
+      <c r="B180" s="15" t="inlineStr">
         <is>
           <t>김도혁</t>
         </is>
@@ -4648,7 +4662,7 @@
       <c r="F180" s="9" t="n"/>
     </row>
     <row r="181">
-      <c r="B181" s="27" t="inlineStr">
+      <c r="B181" s="15" t="inlineStr">
         <is>
           <t>곽희주</t>
         </is>
@@ -4669,7 +4683,7 @@
       <c r="F181" s="9" t="n"/>
     </row>
     <row r="182">
-      <c r="B182" s="27" t="inlineStr">
+      <c r="B182" s="15" t="inlineStr">
         <is>
           <t>권상우</t>
         </is>
@@ -4690,7 +4704,7 @@
       <c r="F182" s="9" t="n"/>
     </row>
     <row r="183">
-      <c r="B183" s="27" t="inlineStr">
+      <c r="B183" s="15" t="inlineStr">
         <is>
           <t>박병선</t>
         </is>
@@ -4711,7 +4725,7 @@
       <c r="F183" s="9" t="n"/>
     </row>
     <row r="184">
-      <c r="B184" s="27" t="inlineStr">
+      <c r="B184" s="15" t="inlineStr">
         <is>
           <t>맹재렬</t>
         </is>
@@ -4732,7 +4746,7 @@
       <c r="F184" s="9" t="n"/>
     </row>
     <row r="185">
-      <c r="B185" s="27" t="inlineStr">
+      <c r="B185" s="15" t="inlineStr">
         <is>
           <t>김동신</t>
         </is>
@@ -4753,7 +4767,7 @@
       <c r="F185" s="9" t="n"/>
     </row>
     <row r="186">
-      <c r="B186" s="27" t="inlineStr">
+      <c r="B186" s="15" t="inlineStr">
         <is>
           <t>박윤재</t>
         </is>
@@ -4774,7 +4788,7 @@
       <c r="F186" s="9" t="n"/>
     </row>
     <row r="187">
-      <c r="B187" s="27" t="inlineStr">
+      <c r="B187" s="15" t="inlineStr">
         <is>
           <t>김범준</t>
         </is>
@@ -4795,7 +4809,7 @@
       <c r="F187" s="9" t="n"/>
     </row>
     <row r="188">
-      <c r="B188" s="27" t="inlineStr">
+      <c r="B188" s="15" t="inlineStr">
         <is>
           <t>구성환</t>
         </is>
@@ -4816,7 +4830,7 @@
       <c r="F188" s="9" t="n"/>
     </row>
     <row r="189">
-      <c r="B189" s="27" t="inlineStr">
+      <c r="B189" s="15" t="inlineStr">
         <is>
           <t>서지후</t>
         </is>
@@ -4837,7 +4851,7 @@
       <c r="F189" s="9" t="n"/>
     </row>
     <row r="190">
-      <c r="B190" s="27" t="inlineStr">
+      <c r="B190" s="15" t="inlineStr">
         <is>
           <t>서종봉</t>
         </is>
@@ -4858,7 +4872,7 @@
       <c r="F190" s="9" t="n"/>
     </row>
     <row r="191">
-      <c r="B191" s="27" t="inlineStr">
+      <c r="B191" s="15" t="inlineStr">
         <is>
           <t>배성종</t>
         </is>
@@ -4879,7 +4893,7 @@
       <c r="F191" s="9" t="n"/>
     </row>
     <row r="192">
-      <c r="B192" s="27" t="inlineStr">
+      <c r="B192" s="15" t="inlineStr">
         <is>
           <t>맹세창</t>
         </is>
@@ -4900,7 +4914,7 @@
       <c r="F192" s="9" t="n"/>
     </row>
     <row r="193">
-      <c r="B193" s="27" t="inlineStr">
+      <c r="B193" s="15" t="inlineStr">
         <is>
           <t>공윤찬</t>
         </is>
@@ -4921,7 +4935,7 @@
       <c r="F193" s="9" t="n"/>
     </row>
     <row r="194">
-      <c r="B194" s="27" t="inlineStr">
+      <c r="B194" s="15" t="inlineStr">
         <is>
           <t>김대명</t>
         </is>
@@ -4942,7 +4956,7 @@
       <c r="F194" s="9" t="n"/>
     </row>
     <row r="195">
-      <c r="B195" s="27" t="inlineStr">
+      <c r="B195" s="15" t="inlineStr">
         <is>
           <t>백종민</t>
         </is>
@@ -4963,7 +4977,7 @@
       <c r="F195" s="9" t="n"/>
     </row>
     <row r="196">
-      <c r="B196" s="27" t="inlineStr">
+      <c r="B196" s="15" t="inlineStr">
         <is>
           <t>김병국</t>
         </is>
@@ -4984,7 +4998,7 @@
       <c r="F196" s="9" t="n"/>
     </row>
     <row r="197">
-      <c r="B197" s="27" t="inlineStr">
+      <c r="B197" s="15" t="inlineStr">
         <is>
           <t>박해진</t>
         </is>
@@ -5005,7 +5019,7 @@
       <c r="F197" s="9" t="n"/>
     </row>
     <row r="198">
-      <c r="B198" s="27" t="inlineStr">
+      <c r="B198" s="15" t="inlineStr">
         <is>
           <t>박선웅</t>
         </is>
@@ -5026,7 +5040,7 @@
       <c r="F198" s="9" t="n"/>
     </row>
     <row r="199">
-      <c r="B199" s="27" t="inlineStr">
+      <c r="B199" s="15" t="inlineStr">
         <is>
           <t>김광석</t>
         </is>
@@ -5047,7 +5061,7 @@
       <c r="F199" s="9" t="n"/>
     </row>
     <row r="200">
-      <c r="B200" s="27" t="inlineStr">
+      <c r="B200" s="15" t="inlineStr">
         <is>
           <t>권혁호</t>
         </is>
@@ -5068,7 +5082,7 @@
       <c r="F200" s="9" t="n"/>
     </row>
     <row r="201">
-      <c r="B201" s="27" t="inlineStr">
+      <c r="B201" s="15" t="inlineStr">
         <is>
           <t>박은석</t>
         </is>
@@ -5089,7 +5103,7 @@
       <c r="F201" s="9" t="n"/>
     </row>
     <row r="202">
-      <c r="B202" s="27" t="inlineStr">
+      <c r="B202" s="15" t="inlineStr">
         <is>
           <t>강인형</t>
         </is>
@@ -5110,7 +5124,7 @@
       <c r="F202" s="9" t="n"/>
     </row>
     <row r="203">
-      <c r="B203" s="27" t="inlineStr">
+      <c r="B203" s="15" t="inlineStr">
         <is>
           <t>박찬우</t>
         </is>
@@ -5131,7 +5145,7 @@
       <c r="F203" s="9" t="n"/>
     </row>
     <row r="204">
-      <c r="B204" s="28" t="inlineStr">
+      <c r="B204" s="25" t="inlineStr">
         <is>
           <t>박재정</t>
         </is>
@@ -6396,4028 +6410,4028 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="12.625" customWidth="1" style="1" min="1" max="3"/>
+    <col width="12.625" customWidth="1" style="29" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="29" t="inlineStr">
         <is>
           <t>업체</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>메뉴</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="29" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>강민석</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C2" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D2" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>박충선</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D3" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>김보강</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>김서경</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="B5" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>박지수</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>김권후</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>백원길</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>김기남</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>서원섭</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="B10" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>권오성</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="B11" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>박해준</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="B12" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C12" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D12" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="29" t="inlineStr">
         <is>
           <t>고태영</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="B13" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C13" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D13" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="29" t="inlineStr">
         <is>
           <t>강승완</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="B14" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C14" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D14" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="29" t="inlineStr">
         <is>
           <t>구승현</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="B15" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C15" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D15" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="29" t="inlineStr">
         <is>
           <t>서지훈</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="B16" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C16" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D16" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="29" t="inlineStr">
         <is>
           <t>박시후</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D17" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="29" t="inlineStr">
         <is>
           <t>서기원</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C18" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D18" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="29" t="inlineStr">
         <is>
           <t>류승국</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C19" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D19" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="29" t="inlineStr">
         <is>
           <t>박지빈</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="B20" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C20" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D20" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="29" t="inlineStr">
         <is>
           <t>김동현</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="B21" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C21" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D21" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="29" t="inlineStr">
         <is>
           <t>김상규</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="B22" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C22" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D22" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="29" t="inlineStr">
         <is>
           <t>박선준</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="B23" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D23" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="29" t="inlineStr">
         <is>
           <t>김서하</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D24" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="29" t="inlineStr">
         <is>
           <t>배지환</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="B25" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C25" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D25" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="29" t="inlineStr">
         <is>
           <t>서준열</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="29" t="inlineStr">
         <is>
           <t>박기륭</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="n">
+      <c r="B27" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C27" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D27" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="29" t="inlineStr">
         <is>
           <t>김동희</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="B28" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C28" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D28" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="29" t="inlineStr">
         <is>
           <t>김상경</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="B29" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C29" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D29" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="29" t="inlineStr">
         <is>
           <t>김규식</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="n">
+      <c r="B30" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C30" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D30" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="29" t="inlineStr">
         <is>
           <t>강동원</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="n">
+      <c r="B31" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C31" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D31" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="29" t="inlineStr">
         <is>
           <t>류제윤</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="n">
+      <c r="B32" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C32" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D32" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="29" t="inlineStr">
         <is>
           <t>박성환</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="n">
+      <c r="B33" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C33" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D33" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="29" t="inlineStr">
         <is>
           <t>박지일</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="n">
+      <c r="B34" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C34" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D34" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="29" t="inlineStr">
         <is>
           <t>김선호</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="n">
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D35" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="29" t="inlineStr">
         <is>
           <t>서재경</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="n">
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C36" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D36" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="29" t="inlineStr">
         <is>
           <t>고규필</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="n">
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C37" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D37" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="29" t="inlineStr">
         <is>
           <t>김병옥</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="n">
+      <c r="B38" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C38" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D38" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="29" t="inlineStr">
         <is>
           <t>류수영</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="n">
+      <c r="B39" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C39" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D39" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="29" t="inlineStr">
         <is>
           <t>김동석</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="n">
+      <c r="B40" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C40" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D40" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="29" t="inlineStr">
         <is>
           <t>박종찬</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="n">
+      <c r="B41" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C41" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D41" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="29" t="inlineStr">
         <is>
           <t>김사권</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="n">
+      <c r="B42" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C42" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D42" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="29" t="inlineStr">
         <is>
           <t>변우종</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="n">
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D43" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="29" t="inlineStr">
         <is>
           <t>곽인준</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="n">
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D44" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="29" t="inlineStr">
         <is>
           <t>기주봉</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="n">
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D45" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="29" t="inlineStr">
         <is>
           <t>기국서</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="n">
+      <c r="B46" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C46" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D46" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="29" t="inlineStr">
         <is>
           <t>민찬기</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="n">
+      <c r="B47" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C47" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D47" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="29" t="inlineStr">
         <is>
           <t>박선우</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="n">
+      <c r="B48" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C48" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D48" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="29" t="inlineStr">
         <is>
           <t>강신형</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="n">
+      <c r="B49" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C49" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D49" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="29" t="inlineStr">
         <is>
           <t>김민재</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="n">
+      <c r="B50" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C50" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D50" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="29" t="inlineStr">
         <is>
           <t>김민기</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="n">
+      <c r="B51" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C51" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D51" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="29" t="inlineStr">
         <is>
           <t>방주환</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="n">
+      <c r="B52" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C52" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D52" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="29" t="inlineStr">
         <is>
           <t>김동범</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="n">
+      <c r="B53" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C53" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D53" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="29" t="inlineStr">
         <is>
           <t>박선호</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="n">
+      <c r="B54" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C54" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D54" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="29" t="inlineStr">
         <is>
           <t>김동영</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="n">
+      <c r="B55" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C55" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D55" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="29" t="inlineStr">
         <is>
           <t>박훈정</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="n">
+      <c r="B56" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C56" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D56" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="29" t="inlineStr">
         <is>
           <t>김민교</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="n">
+      <c r="B57" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C57" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D57" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="29" t="inlineStr">
         <is>
           <t>백석광</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="n">
+      <c r="B58" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C58" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D58" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="29" t="inlineStr">
         <is>
           <t>박기웅</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="n">
+      <c r="B59" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C59" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D59" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="29" t="inlineStr">
         <is>
           <t>김경식</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="n">
+      <c r="B60" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C60" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D60" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="29" t="inlineStr">
         <is>
           <t>박성현</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="n">
+      <c r="B61" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C61" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D61" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="29" t="inlineStr">
         <is>
           <t>박지환</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="n">
+      <c r="B62" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C62" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D62" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="29" t="inlineStr">
         <is>
           <t>리우진</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="n">
+      <c r="B63" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C63" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D63" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="29" t="inlineStr">
         <is>
           <t>문학진</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D64" s="1" t="n">
+      <c r="B64" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C64" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D64" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="29" t="inlineStr">
         <is>
           <t>박희순</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="n">
+      <c r="B65" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C65" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D65" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="29" t="inlineStr">
         <is>
           <t>강태우</t>
         </is>
       </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="n">
+      <c r="B66" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C66" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D66" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="29" t="inlineStr">
         <is>
           <t>김강현</t>
         </is>
       </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="n">
+      <c r="B67" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C67" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D67" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" s="29" t="inlineStr">
         <is>
           <t>박용범</t>
         </is>
       </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="n">
+      <c r="B68" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C68" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D68" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" s="29" t="inlineStr">
         <is>
           <t>강태주</t>
         </is>
       </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="n">
+      <c r="B69" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C69" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D69" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" s="29" t="inlineStr">
         <is>
           <t>김무열</t>
         </is>
       </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="n">
+      <c r="B70" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C70" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D70" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" s="29" t="inlineStr">
         <is>
           <t>박지홍</t>
         </is>
       </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="n">
+      <c r="B71" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C71" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D71" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" s="29" t="inlineStr">
         <is>
           <t>변요한</t>
         </is>
       </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="n">
+      <c r="B72" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C72" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D72" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" s="29" t="inlineStr">
         <is>
           <t>박인배</t>
         </is>
       </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D73" s="1" t="n">
+      <c r="B73" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C73" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D73" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="29" t="inlineStr">
         <is>
           <t>박철현</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="n">
+      <c r="B74" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C74" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D74" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="A75" s="29" t="inlineStr">
         <is>
           <t>박영운</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="n">
+      <c r="B75" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C75" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D75" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="A76" s="29" t="inlineStr">
         <is>
           <t>배동성</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="n">
+      <c r="B76" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C76" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D76" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="29" t="inlineStr">
         <is>
           <t>권혁풍</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D77" s="1" t="n">
+      <c r="B77" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C77" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D77" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="A78" s="29" t="inlineStr">
         <is>
           <t>류주한</t>
         </is>
       </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="n">
+      <c r="B78" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C78" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D78" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="A79" s="29" t="inlineStr">
         <is>
           <t>배성일</t>
         </is>
       </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D79" s="1" t="n">
+      <c r="B79" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C79" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D79" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="A80" s="29" t="inlineStr">
         <is>
           <t>김상호</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D80" s="1" t="n">
+      <c r="B80" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C80" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D80" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="A81" s="29" t="inlineStr">
         <is>
           <t>김모범</t>
         </is>
       </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="n">
+      <c r="B81" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C81" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D81" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="A82" s="29" t="inlineStr">
         <is>
           <t>방대한</t>
         </is>
       </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D82" s="1" t="n">
+      <c r="B82" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C82" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D82" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="A83" s="29" t="inlineStr">
         <is>
           <t>김동욱</t>
         </is>
       </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D83" s="1" t="n">
+      <c r="B83" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C83" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D83" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="A84" s="29" t="inlineStr">
         <is>
           <t>기세형</t>
         </is>
       </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D84" s="1" t="n">
+      <c r="B84" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C84" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D84" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="A85" s="29" t="inlineStr">
         <is>
           <t>김민재</t>
         </is>
       </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="n">
+      <c r="B85" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C85" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D85" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="A86" s="29" t="inlineStr">
         <is>
           <t>서석규</t>
         </is>
       </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="n">
+      <c r="B86" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C86" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D86" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="A87" s="29" t="inlineStr">
         <is>
           <t>강현욱</t>
         </is>
       </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="n">
+      <c r="B87" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C87" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D87" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="A88" s="29" t="inlineStr">
         <is>
           <t>서우진</t>
         </is>
       </c>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D88" s="1" t="n">
+      <c r="B88" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C88" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D88" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="A89" s="29" t="inlineStr">
         <is>
           <t>박영록</t>
         </is>
       </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="n">
+      <c r="B89" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C89" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D89" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" s="29" t="inlineStr">
         <is>
           <t>배진웅</t>
         </is>
       </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="n">
+      <c r="B90" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C90" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D90" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="A91" s="29" t="inlineStr">
         <is>
           <t>박성환</t>
         </is>
       </c>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C91" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D91" s="1" t="n">
+      <c r="B91" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C91" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D91" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="A92" s="29" t="inlineStr">
         <is>
           <t>김선익</t>
         </is>
       </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D92" s="1" t="n">
+      <c r="B92" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C92" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D92" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="A93" s="29" t="inlineStr">
         <is>
           <t>강신범</t>
         </is>
       </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="n">
+      <c r="B93" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C93" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D93" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="A94" s="29" t="inlineStr">
         <is>
           <t>김동규</t>
         </is>
       </c>
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D94" s="1" t="n">
+      <c r="B94" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C94" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D94" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="A95" s="29" t="inlineStr">
         <is>
           <t>금호석</t>
         </is>
       </c>
-      <c r="B95" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="n">
+      <c r="B95" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C95" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D95" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A96" s="29" t="inlineStr">
         <is>
           <t>박용우</t>
         </is>
       </c>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C96" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="n">
+      <c r="B96" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C96" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D96" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="A97" s="29" t="inlineStr">
         <is>
           <t>권혁범</t>
         </is>
       </c>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C97" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="n">
+      <c r="B97" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C97" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D97" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A98" s="29" t="inlineStr">
         <is>
           <t>마동석</t>
         </is>
       </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D98" s="1" t="n">
+      <c r="B98" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C98" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D98" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="A99" s="29" t="inlineStr">
         <is>
           <t>문종원</t>
         </is>
       </c>
-      <c r="B99" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C99" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D99" s="1" t="n">
+      <c r="B99" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C99" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D99" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" s="29" t="inlineStr">
         <is>
           <t>맹호림</t>
         </is>
       </c>
-      <c r="B100" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C100" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D100" s="1" t="n">
+      <c r="B100" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C100" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D100" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="A101" s="29" t="inlineStr">
         <is>
           <t>고태진</t>
         </is>
       </c>
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C101" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D101" s="1" t="n">
+      <c r="B101" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C101" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D101" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+      <c r="A102" s="29" t="inlineStr">
         <is>
           <t>서상원</t>
         </is>
       </c>
-      <c r="B102" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C102" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D102" s="1" t="n">
+      <c r="B102" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C102" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D102" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+      <c r="A103" s="29" t="inlineStr">
         <is>
           <t>김상원</t>
         </is>
       </c>
-      <c r="B103" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D103" s="1" t="n">
+      <c r="B103" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C103" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D103" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+      <c r="A104" s="29" t="inlineStr">
         <is>
           <t>백철민</t>
         </is>
       </c>
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D104" s="1" t="n">
+      <c r="B104" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C104" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D104" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+      <c r="A105" s="29" t="inlineStr">
         <is>
           <t>박준목</t>
         </is>
       </c>
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="n">
+      <c r="B105" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C105" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D105" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+      <c r="A106" s="29" t="inlineStr">
         <is>
           <t>박광재</t>
         </is>
       </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D106" s="1" t="n">
+      <c r="B106" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C106" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D106" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+      <c r="A107" s="29" t="inlineStr">
         <is>
           <t>문세윤</t>
         </is>
       </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D107" s="1" t="n">
+      <c r="B107" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C107" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D107" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+      <c r="A108" s="29" t="inlineStr">
         <is>
           <t>박해일</t>
         </is>
       </c>
-      <c r="B108" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C108" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="n">
+      <c r="B108" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C108" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D108" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+      <c r="A109" s="29" t="inlineStr">
         <is>
           <t>배호근</t>
         </is>
       </c>
-      <c r="B109" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C109" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D109" s="1" t="n">
+      <c r="B109" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C109" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D109" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+      <c r="A110" s="29" t="inlineStr">
         <is>
           <t>박혁민</t>
         </is>
       </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C110" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="n">
+      <c r="B110" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C110" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D110" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
+      <c r="A111" s="29" t="inlineStr">
         <is>
           <t>김단율</t>
         </is>
       </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D111" s="1" t="n">
+      <c r="B111" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C111" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D111" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+      <c r="A112" s="29" t="inlineStr">
         <is>
           <t>김건우</t>
         </is>
       </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C112" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D112" s="1" t="n">
+      <c r="B112" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C112" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D112" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
+      <c r="A113" s="29" t="inlineStr">
         <is>
           <t>변우석</t>
         </is>
       </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="n">
+      <c r="B113" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C113" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D113" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
+      <c r="A114" s="29" t="inlineStr">
         <is>
           <t>민정섭</t>
         </is>
       </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D114" s="1" t="n">
+      <c r="B114" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C114" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D114" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
+      <c r="A115" s="29" t="inlineStr">
         <is>
           <t>김기방</t>
         </is>
       </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="n">
+      <c r="B115" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C115" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D115" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
+      <c r="A116" s="29" t="inlineStr">
         <is>
           <t>곽민규</t>
         </is>
       </c>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C116" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D116" s="1" t="n">
+      <c r="B116" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C116" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D116" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="29" t="inlineStr">
         <is>
           <t>구본준</t>
         </is>
       </c>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="n">
+      <c r="B117" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C117" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D117" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="29" t="inlineStr">
         <is>
           <t>백민현</t>
         </is>
       </c>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C118" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D118" s="1" t="n">
+      <c r="B118" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C118" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D118" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
+      <c r="A119" s="29" t="inlineStr">
         <is>
           <t>박건도</t>
         </is>
       </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="n">
+      <c r="B119" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C119" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D119" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
+      <c r="A120" s="29" t="inlineStr">
         <is>
           <t>박민호</t>
         </is>
       </c>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="n">
+      <c r="B120" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C120" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D120" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
+      <c r="A121" s="29" t="inlineStr">
         <is>
           <t>박대원</t>
         </is>
       </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D121" s="1" t="n">
+      <c r="B121" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C121" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D121" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
+      <c r="A122" s="29" t="inlineStr">
         <is>
           <t>백천기</t>
         </is>
       </c>
-      <c r="B122" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D122" s="1" t="n">
+      <c r="B122" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C122" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D122" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
+      <c r="A123" s="29" t="inlineStr">
         <is>
           <t>서세원</t>
         </is>
       </c>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D123" s="1" t="n">
+      <c r="B123" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C123" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D123" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
+      <c r="A124" s="29" t="inlineStr">
         <is>
           <t>김래원</t>
         </is>
       </c>
-      <c r="B124" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D124" s="1" t="n">
+      <c r="B124" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C124" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D124" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
+      <c r="A125" s="29" t="inlineStr">
         <is>
           <t>구은호</t>
         </is>
       </c>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D125" s="1" t="n">
+      <c r="B125" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C125" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D125" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
+      <c r="A126" s="29" t="inlineStr">
         <is>
           <t>고두옥</t>
         </is>
       </c>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D126" s="1" t="n">
+      <c r="B126" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C126" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D126" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
+      <c r="A127" s="29" t="inlineStr">
         <is>
           <t>문유강</t>
         </is>
       </c>
-      <c r="B127" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D127" s="1" t="n">
+      <c r="B127" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C127" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D127" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
+      <c r="A128" s="29" t="inlineStr">
         <is>
           <t>국지용</t>
         </is>
       </c>
-      <c r="B128" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D128" s="1" t="n">
+      <c r="B128" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C128" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D128" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="A129" s="29" t="inlineStr">
         <is>
           <t>고동현</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C129" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D129" s="1" t="n">
+      <c r="B129" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C129" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D129" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
+      <c r="A130" s="29" t="inlineStr">
         <is>
           <t>고영빈</t>
         </is>
       </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D130" s="1" t="n">
+      <c r="B130" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C130" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D130" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
+      <c r="A131" s="29" t="inlineStr">
         <is>
           <t>민지혁</t>
         </is>
       </c>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D131" s="1" t="n">
+      <c r="B131" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C131" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D131" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
+      <c r="A132" s="29" t="inlineStr">
         <is>
           <t>강현우</t>
         </is>
       </c>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="n">
+      <c r="B132" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C132" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D132" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
+      <c r="A133" s="29" t="inlineStr">
         <is>
           <t>박철호</t>
         </is>
       </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D133" s="1" t="n">
+      <c r="B133" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C133" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D133" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
+      <c r="A134" s="29" t="inlineStr">
         <is>
           <t>박민규</t>
         </is>
       </c>
-      <c r="B134" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D134" s="1" t="n">
+      <c r="B134" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C134" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D134" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
+      <c r="A135" s="29" t="inlineStr">
         <is>
           <t>김상균</t>
         </is>
       </c>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D135" s="1" t="n">
+      <c r="B135" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C135" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D135" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
+      <c r="A136" s="29" t="inlineStr">
         <is>
           <t>방일수</t>
         </is>
       </c>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D136" s="1" t="n">
+      <c r="B136" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C136" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D136" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
+      <c r="A137" s="29" t="inlineStr">
         <is>
           <t>권오현</t>
         </is>
       </c>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D137" s="1" t="n">
+      <c r="B137" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C137" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D137" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
+      <c r="A138" s="29" t="inlineStr">
         <is>
           <t>권동원</t>
         </is>
       </c>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D138" s="1" t="n">
+      <c r="B138" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C138" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D138" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
+      <c r="A139" s="29" t="inlineStr">
         <is>
           <t>김서원</t>
         </is>
       </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D139" s="1" t="n">
+      <c r="B139" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C139" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D139" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
+      <c r="A140" s="29" t="inlineStr">
         <is>
           <t>김도건</t>
         </is>
       </c>
-      <c r="B140" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C140" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D140" s="1" t="n">
+      <c r="B140" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C140" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D140" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
+      <c r="A141" s="29" t="inlineStr">
         <is>
           <t>강영구</t>
         </is>
       </c>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C141" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D141" s="1" t="n">
+      <c r="B141" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C141" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D141" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
+      <c r="A142" s="29" t="inlineStr">
         <is>
           <t>김대환</t>
         </is>
       </c>
-      <c r="B142" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C142" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D142" s="1" t="n">
+      <c r="B142" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C142" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D142" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
+      <c r="A143" s="29" t="inlineStr">
         <is>
           <t>권동호</t>
         </is>
       </c>
-      <c r="B143" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D143" s="1" t="n">
+      <c r="B143" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C143" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D143" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
+      <c r="A144" s="29" t="inlineStr">
         <is>
           <t>박천국</t>
         </is>
       </c>
-      <c r="B144" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C144" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D144" s="1" t="n">
+      <c r="B144" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C144" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D144" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
+      <c r="A145" s="29" t="inlineStr">
         <is>
           <t>문천식</t>
         </is>
       </c>
-      <c r="B145" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C145" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D145" s="1" t="n">
+      <c r="B145" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C145" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D145" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
+      <c r="A146" s="29" t="inlineStr">
         <is>
           <t>박성훈</t>
         </is>
       </c>
-      <c r="B146" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C146" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D146" s="1" t="n">
+      <c r="B146" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C146" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D146" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
+      <c r="A147" s="29" t="inlineStr">
         <is>
           <t>박영준</t>
         </is>
       </c>
-      <c r="B147" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C147" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D147" s="1" t="n">
+      <c r="B147" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C147" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D147" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
+      <c r="A148" s="29" t="inlineStr">
         <is>
           <t>박유덕</t>
         </is>
       </c>
-      <c r="B148" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C148" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D148" s="1" t="n">
+      <c r="B148" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C148" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D148" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
+      <c r="A149" s="29" t="inlineStr">
         <is>
           <t>박원호</t>
         </is>
       </c>
-      <c r="B149" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C149" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D149" s="1" t="n">
+      <c r="B149" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C149" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D149" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
+      <c r="A150" s="29" t="inlineStr">
         <is>
           <t>문지후</t>
         </is>
       </c>
-      <c r="B150" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C150" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D150" s="1" t="n">
+      <c r="B150" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C150" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D150" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
+      <c r="A151" s="29" t="inlineStr">
         <is>
           <t>구자성</t>
         </is>
       </c>
-      <c r="B151" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C151" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D151" s="1" t="n">
+      <c r="B151" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C151" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D151" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
+      <c r="A152" s="29" t="inlineStr">
         <is>
           <t>서지원</t>
         </is>
       </c>
-      <c r="B152" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C152" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D152" s="1" t="n">
+      <c r="B152" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C152" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D152" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
+      <c r="A153" s="29" t="inlineStr">
         <is>
           <t>반상윤</t>
         </is>
       </c>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D153" s="1" t="n">
+      <c r="B153" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C153" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D153" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
+      <c r="A154" s="29" t="inlineStr">
         <is>
           <t>박유천</t>
         </is>
       </c>
-      <c r="B154" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C154" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D154" s="1" t="n">
+      <c r="B154" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C154" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D154" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
+      <c r="A155" s="29" t="inlineStr">
         <is>
           <t>박상남</t>
         </is>
       </c>
-      <c r="B155" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C155" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D155" s="1" t="n">
+      <c r="B155" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C155" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D155" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
+      <c r="A156" s="29" t="inlineStr">
         <is>
           <t>강혁일</t>
         </is>
       </c>
-      <c r="B156" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C156" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D156" s="1" t="n">
+      <c r="B156" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C156" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D156" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
+      <c r="A157" s="29" t="inlineStr">
         <is>
           <t>김동규</t>
         </is>
       </c>
-      <c r="B157" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C157" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D157" s="1" t="n">
+      <c r="B157" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C157" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D157" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
+      <c r="A158" s="29" t="inlineStr">
         <is>
           <t>강현중</t>
         </is>
       </c>
-      <c r="B158" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C158" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D158" s="1" t="n">
+      <c r="B158" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C158" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D158" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
+      <c r="A159" s="29" t="inlineStr">
         <is>
           <t>김도윤</t>
         </is>
       </c>
-      <c r="B159" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C159" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D159" s="1" t="n">
+      <c r="B159" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C159" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D159" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
+      <c r="A160" s="29" t="inlineStr">
         <is>
           <t>김남길</t>
         </is>
       </c>
-      <c r="B160" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C160" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D160" s="1" t="n">
+      <c r="B160" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C160" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D160" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+      <c r="A161" s="29" t="inlineStr">
         <is>
           <t>강신하</t>
         </is>
       </c>
-      <c r="B161" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C161" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D161" s="1" t="n">
+      <c r="B161" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C161" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D161" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
+      <c r="A162" s="29" t="inlineStr">
         <is>
           <t>방정식</t>
         </is>
       </c>
-      <c r="B162" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C162" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D162" s="1" t="n">
+      <c r="B162" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C162" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D162" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+      <c r="A163" s="29" t="inlineStr">
         <is>
           <t>서왕석</t>
         </is>
       </c>
-      <c r="B163" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C163" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D163" s="1" t="n">
+      <c r="B163" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C163" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D163" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
+      <c r="A164" s="29" t="inlineStr">
         <is>
           <t>서종철</t>
         </is>
       </c>
-      <c r="B164" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C164" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D164" s="1" t="n">
+      <c r="B164" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C164" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D164" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
+      <c r="A165" s="29" t="inlineStr">
         <is>
           <t>강신일</t>
         </is>
       </c>
-      <c r="B165" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C165" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D165" s="1" t="n">
+      <c r="B165" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C165" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D165" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
+      <c r="A166" s="29" t="inlineStr">
         <is>
           <t>강성현</t>
         </is>
       </c>
-      <c r="B166" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C166" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D166" s="1" t="n">
+      <c r="B166" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C166" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D166" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+      <c r="A167" s="29" t="inlineStr">
         <is>
           <t>박효준</t>
         </is>
       </c>
-      <c r="B167" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C167" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D167" s="1" t="n">
+      <c r="B167" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C167" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D167" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
+      <c r="A168" s="29" t="inlineStr">
         <is>
           <t>문동혁</t>
         </is>
       </c>
-      <c r="B168" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C168" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D168" s="1" t="n">
+      <c r="B168" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C168" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D168" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
+      <c r="A169" s="29" t="inlineStr">
         <is>
           <t>박찬우</t>
         </is>
       </c>
-      <c r="B169" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C169" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D169" s="1" t="n">
+      <c r="B169" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C169" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D169" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
+      <c r="A170" s="29" t="inlineStr">
         <is>
           <t>김민상</t>
         </is>
       </c>
-      <c r="B170" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C170" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D170" s="1" t="n">
+      <c r="B170" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C170" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D170" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
+      <c r="A171" s="29" t="inlineStr">
         <is>
           <t>강태환</t>
         </is>
       </c>
-      <c r="B171" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C171" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D171" s="1" t="n">
+      <c r="B171" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C171" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D171" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+      <c r="A172" s="29" t="inlineStr">
         <is>
           <t>박주용</t>
         </is>
       </c>
-      <c r="B172" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C172" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D172" s="1" t="n">
+      <c r="B172" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C172" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D172" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
+      <c r="A173" s="29" t="inlineStr">
         <is>
           <t>박정철</t>
         </is>
       </c>
-      <c r="B173" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C173" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D173" s="1" t="n">
+      <c r="B173" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C173" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D173" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
+      <c r="A174" s="29" t="inlineStr">
         <is>
           <t>김경남</t>
         </is>
       </c>
-      <c r="B174" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C174" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D174" s="1" t="n">
+      <c r="B174" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C174" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D174" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
+      <c r="A175" s="29" t="inlineStr">
         <is>
           <t>김상엽</t>
         </is>
       </c>
-      <c r="B175" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C175" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D175" s="1" t="n">
+      <c r="B175" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C175" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D175" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
+      <c r="A176" s="29" t="inlineStr">
         <is>
           <t>박종환</t>
         </is>
       </c>
-      <c r="B176" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C176" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D176" s="1" t="n">
+      <c r="B176" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C176" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D176" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+      <c r="A177" s="29" t="inlineStr">
         <is>
           <t>김도혁</t>
         </is>
       </c>
-      <c r="B177" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C177" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D177" s="1" t="n">
+      <c r="B177" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C177" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D177" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
+      <c r="A178" s="29" t="inlineStr">
         <is>
           <t>곽희주</t>
         </is>
       </c>
-      <c r="B178" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C178" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D178" s="1" t="n">
+      <c r="B178" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C178" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D178" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
+      <c r="A179" s="29" t="inlineStr">
         <is>
           <t>권상우</t>
         </is>
       </c>
-      <c r="B179" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C179" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D179" s="1" t="n">
+      <c r="B179" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C179" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D179" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="inlineStr">
+      <c r="A180" s="29" t="inlineStr">
         <is>
           <t>박병선</t>
         </is>
       </c>
-      <c r="B180" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C180" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D180" s="1" t="n">
+      <c r="B180" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C180" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D180" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="inlineStr">
+      <c r="A181" s="29" t="inlineStr">
         <is>
           <t>맹재렬</t>
         </is>
       </c>
-      <c r="B181" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C181" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D181" s="1" t="n">
+      <c r="B181" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C181" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D181" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="inlineStr">
+      <c r="A182" s="29" t="inlineStr">
         <is>
           <t>김동신</t>
         </is>
       </c>
-      <c r="B182" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C182" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D182" s="1" t="n">
+      <c r="B182" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C182" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D182" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
+      <c r="A183" s="29" t="inlineStr">
         <is>
           <t>박윤재</t>
         </is>
       </c>
-      <c r="B183" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C183" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D183" s="1" t="n">
+      <c r="B183" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C183" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D183" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="inlineStr">
+      <c r="A184" s="29" t="inlineStr">
         <is>
           <t>김범준</t>
         </is>
       </c>
-      <c r="B184" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C184" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D184" s="1" t="n">
+      <c r="B184" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C184" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D184" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="inlineStr">
+      <c r="A185" s="29" t="inlineStr">
         <is>
           <t>구성환</t>
         </is>
       </c>
-      <c r="B185" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C185" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D185" s="1" t="n">
+      <c r="B185" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C185" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D185" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="inlineStr">
+      <c r="A186" s="29" t="inlineStr">
         <is>
           <t>서지후</t>
         </is>
       </c>
-      <c r="B186" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C186" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D186" s="1" t="n">
+      <c r="B186" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C186" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D186" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="inlineStr">
+      <c r="A187" s="29" t="inlineStr">
         <is>
           <t>서종봉</t>
         </is>
       </c>
-      <c r="B187" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C187" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D187" s="1" t="n">
+      <c r="B187" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C187" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D187" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="inlineStr">
+      <c r="A188" s="29" t="inlineStr">
         <is>
           <t>배성종</t>
         </is>
       </c>
-      <c r="B188" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C188" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D188" s="1" t="n">
+      <c r="B188" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C188" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D188" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
+      <c r="A189" s="29" t="inlineStr">
         <is>
           <t>맹세창</t>
         </is>
       </c>
-      <c r="B189" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C189" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="D189" s="1" t="n">
+      <c r="B189" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C189" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="D189" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="inlineStr">
+      <c r="A190" s="29" t="inlineStr">
         <is>
           <t>공윤찬</t>
         </is>
       </c>
-      <c r="B190" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C190" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D190" s="1" t="n">
+      <c r="B190" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C190" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D190" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
+      <c r="A191" s="29" t="inlineStr">
         <is>
           <t>김대명</t>
         </is>
       </c>
-      <c r="B191" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C191" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D191" s="1" t="n">
+      <c r="B191" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C191" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D191" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="inlineStr">
+      <c r="A192" s="29" t="inlineStr">
         <is>
           <t>백종민</t>
         </is>
       </c>
-      <c r="B192" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C192" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D192" s="1" t="n">
+      <c r="B192" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C192" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D192" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
+      <c r="A193" s="29" t="inlineStr">
         <is>
           <t>김병국</t>
         </is>
       </c>
-      <c r="B193" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C193" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D193" s="1" t="n">
+      <c r="B193" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C193" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D193" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="inlineStr">
+      <c r="A194" s="29" t="inlineStr">
         <is>
           <t>박해진</t>
         </is>
       </c>
-      <c r="B194" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C194" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D194" s="1" t="n">
+      <c r="B194" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C194" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D194" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="inlineStr">
+      <c r="A195" s="29" t="inlineStr">
         <is>
           <t>박선웅</t>
         </is>
       </c>
-      <c r="B195" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C195" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D195" s="1" t="n">
+      <c r="B195" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C195" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D195" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="inlineStr">
+      <c r="A196" s="29" t="inlineStr">
         <is>
           <t>김광석</t>
         </is>
       </c>
-      <c r="B196" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C196" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D196" s="1" t="n">
+      <c r="B196" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C196" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D196" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="inlineStr">
+      <c r="A197" s="29" t="inlineStr">
         <is>
           <t>권혁호</t>
         </is>
       </c>
-      <c r="B197" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C197" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D197" s="1" t="n">
+      <c r="B197" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C197" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D197" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="inlineStr">
+      <c r="A198" s="29" t="inlineStr">
         <is>
           <t>박은석</t>
         </is>
       </c>
-      <c r="B198" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C198" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D198" s="1" t="n">
+      <c r="B198" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C198" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D198" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="inlineStr">
+      <c r="A199" s="29" t="inlineStr">
         <is>
           <t>강인형</t>
         </is>
       </c>
-      <c r="B199" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C199" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D199" s="1" t="n">
+      <c r="B199" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C199" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D199" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="inlineStr">
+      <c r="A200" s="29" t="inlineStr">
         <is>
           <t>박찬우</t>
         </is>
       </c>
-      <c r="B200" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="C200" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="D200" s="1" t="n">
+      <c r="B200" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="C200" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="D200" s="29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="inlineStr">
+      <c r="A201" s="29" t="inlineStr">
         <is>
           <t>박재정</t>
         </is>
       </c>
-      <c r="B201" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="C201" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="D201" s="1" t="n">
+      <c r="B201" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="C201" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="D201" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10440,227 +10454,135 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="12.375" customWidth="1" min="1" max="1"/>
-    <col width="13.75" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.375" customWidth="1" style="30" min="1" max="1"/>
+    <col width="13.75" customWidth="1" style="30" min="2" max="2"/>
+    <col width="9" customWidth="1" style="29" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>업체</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="29" t="inlineStr">
         <is>
           <t>메뉴</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>가격</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="A2" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="C2" s="29" t="n">
         <v>4400</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="A3" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="n">
         <v>4700</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>스타카페</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>스타카페</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>스무디</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="A5" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="B5" s="29" t="inlineStr">
+        <is>
+          <t>스무디</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="n">
         <v>4900</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>아이스티</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="B6" s="29" t="inlineStr">
+        <is>
+          <t>아이스티</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="n">
         <v>4200</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>커피딘</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>카페라떼</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>커피딘</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>카페라떼</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="n">
         <v>4500</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
+      <c r="A8" s="29" t="n"/>
+      <c r="B8" s="29" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
+      <c r="A9" s="29" t="n"/>
+      <c r="B9" s="29" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
+      <c r="A10" s="29" t="n"/>
+      <c r="B10" s="29" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
+      <c r="A11" s="29" t="n"/>
+      <c r="B11" s="29" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>수량</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>가격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>462000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>456900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>